--- a/MappingHeatmap_Input_list.xlsx
+++ b/MappingHeatmap_Input_list.xlsx
@@ -501,7 +501,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -531,28 +531,28 @@
         <v>2</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>6</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
       <c r="S2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T2">
         <v>0</v>
